--- a/king_index/output/pe/national_defense_pe_original_data.xlsx
+++ b/king_index/output/pe/national_defense_pe_original_data.xlsx
@@ -1469,10 +1469,10 @@
         <v>12.01004384972598</v>
       </c>
       <c r="E4" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="F4" t="n">
-        <v>9.110138224423808</v>
+        <v>9.11052307512176</v>
       </c>
       <c r="G4" t="n">
         <v>0.00653014200016221</v>
@@ -1954,13 +1954,13 @@
         <v>74.82138254060386</v>
       </c>
       <c r="D6" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E6" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F6" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G6" t="n">
         <v>0.621670650089051</v>
@@ -2193,13 +2193,13 @@
         <v>76.86030641165607</v>
       </c>
       <c r="D7" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E7" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F7" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G7" t="n">
         <v>0.6637001178551444</v>
@@ -2432,13 +2432,13 @@
         <v>75.47066185885315</v>
       </c>
       <c r="D8" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E8" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F8" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G8" t="n">
         <v>0.6463401202995841</v>
@@ -2671,13 +2671,13 @@
         <v>74.85767567683155</v>
       </c>
       <c r="D9" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E9" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F9" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G9" t="n">
         <v>0.6297110700095211</v>
@@ -2910,13 +2910,13 @@
         <v>74.4542644804182</v>
       </c>
       <c r="D10" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E10" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F10" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G10" t="n">
         <v>0.6231325446200455</v>
@@ -3149,13 +3149,13 @@
         <v>71.85348443026332</v>
       </c>
       <c r="D11" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E11" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F11" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G11" t="n">
         <v>0.603579705202692</v>
@@ -3388,13 +3388,13 @@
         <v>70.90401510642877</v>
       </c>
       <c r="D12" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E12" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F12" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G12" t="n">
         <v>0.5991940216097084</v>
@@ -3627,13 +3627,13 @@
         <v>69.85012997620092</v>
       </c>
       <c r="D13" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E13" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F13" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G13" t="n">
         <v>0.6086963360611729</v>
@@ -3866,13 +3866,13 @@
         <v>68.37828703635124</v>
       </c>
       <c r="D14" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E14" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F14" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G14" t="n">
         <v>0.5463830816122287</v>
@@ -4105,13 +4105,13 @@
         <v>68.62042019009986</v>
       </c>
       <c r="D15" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E15" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F15" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G15" t="n">
         <v>0.5491241338578434</v>
@@ -4344,13 +4344,13 @@
         <v>68.22511927577838</v>
       </c>
       <c r="D16" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E16" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F16" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G16" t="n">
         <v>0.5606365532894255</v>
@@ -4583,13 +4583,13 @@
         <v>69.19343275226707</v>
       </c>
       <c r="D17" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E17" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F17" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G17" t="n">
         <v>0.565753184213208</v>
@@ -4822,13 +4822,13 @@
         <v>68.1953248344789</v>
       </c>
       <c r="D18" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E18" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F18" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G18" t="n">
         <v>0.5553371856145704</v>
@@ -5061,13 +5061,13 @@
         <v>69.11096864252538</v>
       </c>
       <c r="D19" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E19" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F19" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G19" t="n">
         <v>0.5942601275676017</v>
@@ -5300,13 +5300,13 @@
         <v>71.15151072673433</v>
       </c>
       <c r="D20" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E20" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F20" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G20" t="n">
         <v>0.5938946539348531</v>
@@ -5539,13 +5539,13 @@
         <v>73.96285410017916</v>
       </c>
       <c r="D21" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E21" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F21" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G21" t="n">
         <v>0.611620125123162</v>
@@ -5778,13 +5778,13 @@
         <v>72.08644743906444</v>
       </c>
       <c r="D22" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E22" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F22" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G22" t="n">
         <v>0.5876816021781262</v>
@@ -6017,13 +6017,13 @@
         <v>72.27386735177654</v>
       </c>
       <c r="D23" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E23" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F23" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G23" t="n">
         <v>0.5942601275676017</v>
@@ -6256,13 +6256,13 @@
         <v>70.00387943346188</v>
       </c>
       <c r="D24" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E24" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F24" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G24" t="n">
         <v>0.5838441290342655</v>
@@ -6495,13 +6495,13 @@
         <v>71.67827217470546</v>
       </c>
       <c r="D25" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E25" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F25" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G25" t="n">
         <v>0.5842096026670142</v>
@@ -6734,13 +6734,13 @@
         <v>71.33507360400189</v>
       </c>
       <c r="D26" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E26" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F26" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G26" t="n">
         <v>0.5610020269221743</v>
@@ -6973,13 +6973,13 @@
         <v>74.68352754490141</v>
       </c>
       <c r="D27" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E27" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F27" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G27" t="n">
         <v>0.6032142315699434</v>
@@ -7212,13 +7212,13 @@
         <v>74.604149539688</v>
       </c>
       <c r="D28" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E28" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F28" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G28" t="n">
         <v>0.6048588629173123</v>
@@ -7451,13 +7451,13 @@
         <v>76.0612928303223</v>
       </c>
       <c r="D29" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E29" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F29" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G29" t="n">
         <v>0.6099754937757932</v>
@@ -7690,13 +7690,13 @@
         <v>79.35724599944895</v>
       </c>
       <c r="D30" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E30" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F30" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G30" t="n">
         <v>0.6264218073147833</v>
@@ -7929,13 +7929,13 @@
         <v>79.82443224008755</v>
       </c>
       <c r="D31" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E31" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F31" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G31" t="n">
         <v>0.6224015973545483</v>
@@ -8168,13 +8168,13 @@
         <v>79.04247536210889</v>
       </c>
       <c r="D32" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E32" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F32" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G32" t="n">
         <v>0.6107064410412905</v>
@@ -8407,13 +8407,13 @@
         <v>77.91267952100648</v>
       </c>
       <c r="D33" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E33" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F33" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G33" t="n">
         <v>0.5940773907512273</v>
@@ -8646,13 +8646,13 @@
         <v>76.58924265031645</v>
       </c>
       <c r="D34" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E34" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F34" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G34" t="n">
         <v>0.5860369708307573</v>
@@ -8885,13 +8885,13 @@
         <v>76.23810493650326</v>
       </c>
       <c r="D35" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E35" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F35" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G35" t="n">
         <v>0.5865851812798802</v>
@@ -9124,13 +9124,13 @@
         <v>76.4144209402196</v>
       </c>
       <c r="D36" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E36" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F36" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G36" t="n">
         <v>0.5949910748330989</v>
@@ -9363,13 +9363,13 @@
         <v>73.60237319482738</v>
       </c>
       <c r="D37" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E37" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F37" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G37" t="n">
         <v>0.5798239190740305</v>
@@ -9602,13 +9602,13 @@
         <v>72.63500774117924</v>
       </c>
       <c r="D38" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E38" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F38" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G38" t="n">
         <v>0.5664841314787051</v>
@@ -9841,13 +9841,13 @@
         <v>70.7016825093654</v>
       </c>
       <c r="D39" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E39" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F39" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G39" t="n">
         <v>0.5467485552449772</v>
@@ -10080,13 +10080,13 @@
         <v>71.29315661200428</v>
       </c>
       <c r="D40" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E40" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F40" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G40" t="n">
         <v>0.5588091851256823</v>
@@ -10319,13 +10319,13 @@
         <v>72.05877352383172</v>
       </c>
       <c r="D41" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E41" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F41" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G41" t="n">
         <v>0.5699561309898172</v>
@@ -10558,13 +10558,13 @@
         <v>70.53897895657012</v>
       </c>
       <c r="D42" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E42" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F42" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G42" t="n">
         <v>0.4663165766856053</v>
@@ -10797,13 +10797,13 @@
         <v>68.83061430942267</v>
       </c>
       <c r="D43" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E43" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F43" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G43" t="n">
         <v>0.4575962349844045</v>
@@ -11036,13 +11036,13 @@
         <v>63.49213833759792</v>
       </c>
       <c r="D44" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E44" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F44" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G44" t="n">
         <v>0.4422247852347936</v>
@@ -11275,13 +11275,13 @@
         <v>64.98485054878543</v>
       </c>
       <c r="D45" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E45" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F45" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G45" t="n">
         <v>0.4259665211092021</v>
@@ -11514,13 +11514,13 @@
         <v>67.32278199930374</v>
       </c>
       <c r="D46" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E46" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F46" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G46" t="n">
         <v>0.4782885712511052</v>
@@ -11753,13 +11753,13 @@
         <v>67.9955688907733</v>
       </c>
       <c r="D47" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E47" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F47" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G47" t="n">
         <v>0.4682380079532827</v>
@@ -11992,13 +11992,13 @@
         <v>68.31035460322668</v>
       </c>
       <c r="D48" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E48" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F48" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G48" t="n">
         <v>0.4768105472040689</v>
@@ -12231,13 +12231,13 @@
         <v>67.09701150306105</v>
       </c>
       <c r="D49" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E49" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F49" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G49" t="n">
         <v>0.4729676847993168</v>
@@ -12470,13 +12470,13 @@
         <v>68.42039047431523</v>
       </c>
       <c r="D50" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E50" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F50" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G50" t="n">
         <v>0.4867133081167782</v>
@@ -12709,13 +12709,13 @@
         <v>66.96348969374148</v>
       </c>
       <c r="D51" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E51" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F51" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G51" t="n">
         <v>0.4821314336558573</v>
@@ -12948,13 +12948,13 @@
         <v>64.82346288207512</v>
       </c>
       <c r="D52" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E52" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F52" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G52" t="n">
         <v>0.4723764751935626</v>
@@ -13187,13 +13187,13 @@
         <v>64.35716635798563</v>
       </c>
       <c r="D53" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E53" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F53" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G53" t="n">
         <v>0.4567094206084238</v>
@@ -13426,13 +13426,13 @@
         <v>66.29785503345326</v>
       </c>
       <c r="D54" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E54" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F54" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G54" t="n">
         <v>0.4812446192798766</v>
@@ -13665,13 +13665,13 @@
         <v>66.41186231123322</v>
       </c>
       <c r="D55" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E55" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F55" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G55" t="n">
         <v>0.4945468353766969</v>
@@ -13904,13 +13904,13 @@
         <v>64.88592965185613</v>
       </c>
       <c r="D56" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E56" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F56" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G56" t="n">
         <v>0.4901127633661905</v>
@@ -14143,13 +14143,13 @@
         <v>65.47377180255658</v>
       </c>
       <c r="D57" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E57" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F57" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G57" t="n">
         <v>0.4973550810203549</v>
@@ -14382,13 +14382,13 @@
         <v>69.12617359159131</v>
       </c>
       <c r="D58" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E58" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F58" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G58" t="n">
         <v>0.5099182851263078</v>
@@ -14621,13 +14621,13 @@
         <v>70.01990353205662</v>
       </c>
       <c r="D59" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E59" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F59" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G59" t="n">
         <v>0.4921819969536798</v>
@@ -14860,13 +14860,13 @@
         <v>70.13386032815592</v>
       </c>
       <c r="D60" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E60" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F60" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G60" t="n">
         <v>0.4966160690294875</v>
@@ -15099,13 +15099,13 @@
         <v>70.29120036495324</v>
       </c>
       <c r="D61" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E61" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F61" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G61" t="n">
         <v>0.4948424402122247</v>
@@ -15338,13 +15338,13 @@
         <v>68.11038648116956</v>
       </c>
       <c r="D62" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E62" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F62" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G62" t="n">
         <v>0.4790275832419727</v>
@@ -15577,13 +15577,13 @@
         <v>69.76633552919265</v>
       </c>
       <c r="D63" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E63" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F63" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G63" t="n">
         <v>0.5025281650870301</v>
@@ -15816,13 +15816,13 @@
         <v>70.80352642981011</v>
       </c>
       <c r="D64" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E64" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F64" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G64" t="n">
         <v>0.5010501410399938</v>
@@ -16055,13 +16055,13 @@
         <v>71.65721355313421</v>
       </c>
       <c r="D65" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E65" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F65" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G65" t="n">
         <v>0.517456207616</v>
@@ -16294,13 +16294,13 @@
         <v>73.30307266061111</v>
       </c>
       <c r="D66" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E66" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F66" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G66" t="n">
         <v>0.5273589685287092</v>
@@ -16533,13 +16533,13 @@
         <v>73.397636562701</v>
       </c>
       <c r="D67" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E67" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F67" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G67" t="n">
         <v>0.5143523572021155</v>
@@ -16772,13 +16772,13 @@
         <v>72.32783480019881</v>
       </c>
       <c r="D68" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E68" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F68" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G68" t="n">
         <v>0.504006189068765</v>
@@ -17011,13 +17011,13 @@
         <v>73.3578423695445</v>
       </c>
       <c r="D69" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E69" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F69" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G69" t="n">
         <v>0.5059276203364425</v>
@@ -17250,13 +17250,13 @@
         <v>73.53264875769501</v>
       </c>
       <c r="D70" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E70" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F70" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G70" t="n">
         <v>0.4989809074525045</v>
@@ -17489,13 +17489,13 @@
         <v>73.33984238723312</v>
       </c>
       <c r="D71" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E71" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F71" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G71" t="n">
         <v>0.5034149794630107</v>
@@ -17728,13 +17728,13 @@
         <v>71.30792742102366</v>
       </c>
       <c r="D72" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E72" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F72" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G72" t="n">
         <v>0.4859742961259107</v>
@@ -17967,13 +17967,13 @@
         <v>71.54798180871666</v>
       </c>
       <c r="D73" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E73" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F73" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G73" t="n">
         <v>0.4674989958971138</v>
@@ -18206,13 +18206,13 @@
         <v>70.35659220677326</v>
       </c>
       <c r="D74" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E74" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F74" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G74" t="n">
         <v>0.4570050253786502</v>
@@ -18445,13 +18445,13 @@
         <v>72.37391644656533</v>
       </c>
       <c r="D75" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E75" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F75" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G75" t="n">
         <v>0.4609956902338169</v>
@@ -18684,13 +18684,13 @@
         <v>72.66058760623059</v>
       </c>
       <c r="D76" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E76" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F76" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G76" t="n">
         <v>0.4643951454832292</v>
@@ -18923,13 +18923,13 @@
         <v>72.02024519156731</v>
       </c>
       <c r="D77" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E77" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F77" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G77" t="n">
         <v>0.4642473430981161</v>
@@ -19162,13 +19162,13 @@
         <v>71.29649592754546</v>
       </c>
       <c r="D78" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E78" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F78" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G78" t="n">
         <v>0.4655775646947378</v>
@@ -19401,13 +19401,13 @@
         <v>71.03190837050683</v>
       </c>
       <c r="D79" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E79" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F79" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G79" t="n">
         <v>0.4500583125600137</v>
@@ -19640,13 +19640,13 @@
         <v>74.58040335779494</v>
       </c>
       <c r="D80" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E80" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F80" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G80" t="n">
         <v>0.4567094206084238</v>
@@ -19879,13 +19879,13 @@
         <v>73.23180724827662</v>
       </c>
       <c r="D81" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E81" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F81" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G81" t="n">
         <v>0.439416539656437</v>
@@ -20118,13 +20118,13 @@
         <v>77.38796552003416</v>
       </c>
       <c r="D82" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E82" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F82" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G82" t="n">
         <v>0.4510929293211076</v>
@@ -20357,13 +20357,13 @@
         <v>78.47521459727022</v>
       </c>
       <c r="D83" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E83" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F83" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G83" t="n">
         <v>0.4537533725796525</v>
@@ -20596,13 +20596,13 @@
         <v>79.48067800255349</v>
       </c>
       <c r="D84" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E84" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F84" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G84" t="n">
         <v>0.4463632524750735</v>
@@ -20835,13 +20835,13 @@
         <v>79.07565045087749</v>
       </c>
       <c r="D85" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E85" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F85" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G85" t="n">
         <v>0.4275923475413516</v>
@@ -21074,13 +21074,13 @@
         <v>78.22345672628127</v>
       </c>
       <c r="D86" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E86" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F86" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G86" t="n">
         <v>0.4308440003403494</v>
@@ -21313,13 +21313,13 @@
         <v>80.51475336343552</v>
       </c>
       <c r="D87" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E87" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F87" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G87" t="n">
         <v>0.4258187187240888</v>
@@ -21552,13 +21552,13 @@
         <v>84.9060688811563</v>
       </c>
       <c r="D88" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E88" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F88" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G88" t="n">
         <v>0.4589264566463277</v>
@@ -21791,13 +21791,13 @@
         <v>91.23464512060208</v>
       </c>
       <c r="D89" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E89" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F89" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G89" t="n">
         <v>0.4805056072237077</v>
@@ -22030,13 +22030,13 @@
         <v>92.1598938873139</v>
       </c>
       <c r="D90" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E90" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F90" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G90" t="n">
         <v>0.4800622000683681</v>
@@ -22269,13 +22269,13 @@
         <v>94.49402248273607</v>
       </c>
       <c r="D91" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E91" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F91" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G91" t="n">
         <v>0.4784363736362185</v>
@@ -22508,13 +22508,13 @@
         <v>97.00874763173665</v>
       </c>
       <c r="D92" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E92" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F92" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G92" t="n">
         <v>0.4615868998395712</v>
@@ -22747,13 +22747,13 @@
         <v>94.09136394275374</v>
       </c>
       <c r="D93" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E93" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F93" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G93" t="n">
         <v>0.4315830123312169</v>
@@ -22986,13 +22986,13 @@
         <v>91.02008261369602</v>
       </c>
       <c r="D94" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E94" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F94" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G94" t="n">
         <v>0.4271489403207106</v>
@@ -23225,13 +23225,13 @@
         <v>94.3420969049555</v>
       </c>
       <c r="D95" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E95" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F95" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G95" t="n">
         <v>0.4339478507542339</v>
@@ -23464,13 +23464,13 @@
         <v>93.30439110058427</v>
       </c>
       <c r="D96" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E96" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F96" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G96" t="n">
         <v>0.4286269643024455</v>
@@ -23703,13 +23703,13 @@
         <v>87.15623479256581</v>
       </c>
       <c r="D97" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E97" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F97" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G97" t="n">
         <v>0.4343912579748749</v>
@@ -23942,13 +23942,13 @@
         <v>86.81976172578787</v>
       </c>
       <c r="D98" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E98" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F98" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G98" t="n">
         <v>0.4379385156094005</v>
@@ -24181,13 +24181,13 @@
         <v>88.39987384288747</v>
       </c>
       <c r="D99" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E99" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F99" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G99" t="n">
         <v>0.4420769828496803</v>
@@ -24420,13 +24420,13 @@
         <v>85.90637686299584</v>
       </c>
       <c r="D100" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E100" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F100" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G100" t="n">
         <v>0.4330610363782532</v>
@@ -24659,13 +24659,13 @@
         <v>88.16808350425626</v>
       </c>
       <c r="D101" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E101" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F101" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G101" t="n">
         <v>0.429809383513954</v>
@@ -24898,13 +24898,13 @@
         <v>89.31274754452028</v>
       </c>
       <c r="D102" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E102" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F102" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G102" t="n">
         <v>0.4249319042828067</v>
@@ -25137,13 +25137,13 @@
         <v>89.829537223684</v>
       </c>
       <c r="D103" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E103" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F103" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G103" t="n">
         <v>0.4370517012334199</v>
@@ -25376,13 +25376,13 @@
         <v>90.28138160608916</v>
       </c>
       <c r="D104" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E104" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F104" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G104" t="n">
         <v>0.4423725876852083</v>
@@ -25615,13 +25615,13 @@
         <v>83.49305904780313</v>
       </c>
       <c r="D105" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E105" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F105" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G105" t="n">
         <v>0.4268533354851827</v>
@@ -25854,13 +25854,13 @@
         <v>82.81627430527571</v>
       </c>
       <c r="D106" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E106" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F106" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G106" t="n">
         <v>0.3995098912353733</v>
@@ -26093,13 +26093,13 @@
         <v>81.41322469686915</v>
       </c>
       <c r="D107" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E107" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F107" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G107" t="n">
         <v>0.3930065855720764</v>
@@ -26332,13 +26332,13 @@
         <v>78.49427535698429</v>
       </c>
       <c r="D108" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E108" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F108" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G108" t="n">
         <v>0.3672889676891151</v>
@@ -26571,13 +26571,13 @@
         <v>78.21014892303506</v>
       </c>
       <c r="D109" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E109" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F109" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G109" t="n">
         <v>0.364480722045457</v>
@@ -26810,13 +26810,13 @@
         <v>80.37054393919458</v>
       </c>
       <c r="D110" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E110" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F110" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G110" t="n">
         <v>0.3720186445351492</v>
@@ -27049,13 +27049,13 @@
         <v>77.42980088967845</v>
       </c>
       <c r="D111" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E111" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F111" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G111" t="n">
         <v>0.3582730212176879</v>
@@ -27288,13 +27288,13 @@
         <v>76.78048293591692</v>
       </c>
       <c r="D112" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E112" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F112" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G112" t="n">
         <v>0.3473356434785833</v>
@@ -27527,13 +27527,13 @@
         <v>75.25025702387121</v>
       </c>
       <c r="D113" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E113" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F113" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G113" t="n">
         <v>0.3352158465932715</v>
@@ -27766,13 +27766,13 @@
         <v>75.52815560020565</v>
       </c>
       <c r="D114" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E114" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F114" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G114" t="n">
         <v>0.3375806850162886</v>
@@ -28005,13 +28005,13 @@
         <v>79.9300219470893</v>
       </c>
       <c r="D115" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E115" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F115" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G115" t="n">
         <v>0.3538389491418802</v>
@@ -28244,13 +28244,13 @@
         <v>79.86479965980756</v>
       </c>
       <c r="D116" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E116" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F116" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G116" t="n">
         <v>0.3559081827946708</v>
@@ -28483,13 +28483,13 @@
         <v>79.59512128030966</v>
       </c>
       <c r="D117" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E117" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F117" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G117" t="n">
         <v>0.361081266861346</v>
@@ -28722,13 +28722,13 @@
         <v>79.53534556819893</v>
       </c>
       <c r="D118" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E118" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F118" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G118" t="n">
         <v>0.3692103989567925</v>
@@ -28961,13 +28961,13 @@
         <v>76.12452758362394</v>
       </c>
       <c r="D119" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E119" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F119" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G119" t="n">
         <v>0.3656631412569655</v>
@@ -29200,13 +29200,13 @@
         <v>78.33014152053327</v>
       </c>
       <c r="D120" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E120" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F120" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G120" t="n">
         <v>0.3708362253236406</v>
@@ -29439,13 +29439,13 @@
         <v>80.56378038932309</v>
       </c>
       <c r="D121" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E121" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F121" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G121" t="n">
         <v>0.3666977580833608</v>
@@ -29678,13 +29678,13 @@
         <v>82.32310328225246</v>
       </c>
       <c r="D122" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E122" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F122" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G122" t="n">
         <v>0.3413264308227071</v>
@@ -29917,13 +29917,13 @@
         <v>78.27819161318125</v>
       </c>
       <c r="D123" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E123" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F123" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G123" t="n">
         <v>0.3354790058958602</v>
@@ -30156,13 +30156,13 @@
         <v>79.40223543664355</v>
       </c>
       <c r="D124" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E124" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F124" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G124" t="n">
         <v>0.3422783371970354</v>
@@ -30395,13 +30395,13 @@
         <v>80.55987160604906</v>
       </c>
       <c r="D125" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E125" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F125" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G125" t="n">
         <v>0.3392866313931736</v>
@@ -30634,13 +30634,13 @@
         <v>80.12843792414667</v>
       </c>
       <c r="D126" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E126" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F126" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G126" t="n">
         <v>0.3436382034180896</v>
@@ -30873,13 +30873,13 @@
         <v>78.75726395809191</v>
       </c>
       <c r="D127" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E127" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F127" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G127" t="n">
         <v>0.3368388721169144</v>
@@ -31112,13 +31112,13 @@
         <v>76.50501377904405</v>
       </c>
       <c r="D128" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E128" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F128" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G128" t="n">
         <v>0.3414624174382824</v>
@@ -31351,13 +31351,13 @@
         <v>70.69101804955707</v>
       </c>
       <c r="D129" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E129" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F129" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G129" t="n">
         <v>0.3241921159541937</v>
@@ -31590,13 +31590,13 @@
         <v>66.31537844254018</v>
       </c>
       <c r="D130" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E130" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F130" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G130" t="n">
         <v>0.3114093731105962</v>
@@ -31829,13 +31829,13 @@
         <v>65.98653547165787</v>
       </c>
       <c r="D131" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E131" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F131" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G131" t="n">
         <v>0.3095055603619395</v>
@@ -32068,13 +32068,13 @@
         <v>67.16931299299355</v>
       </c>
       <c r="D132" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E132" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F132" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G132" t="n">
         <v>0.3141291056180061</v>
@@ -32307,13 +32307,13 @@
         <v>66.58422467633721</v>
       </c>
       <c r="D133" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E133" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F133" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G133" t="n">
         <v>0.3101854935051173</v>
@@ -32546,13 +32546,13 @@
         <v>65.83762412690402</v>
       </c>
       <c r="D134" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E134" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F134" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G134" t="n">
         <v>0.3067858705616583</v>
@@ -32785,13 +32785,13 @@
         <v>66.44925252624461</v>
       </c>
       <c r="D135" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E135" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F135" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G135" t="n">
         <v>0.3145371092819848</v>
@@ -33024,13 +33024,13 @@
         <v>67.50226103731252</v>
       </c>
       <c r="D136" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E136" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F136" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G136" t="n">
         <v>0.3144011226664094</v>
@@ -33263,13 +33263,13 @@
         <v>68.04018607986924</v>
       </c>
       <c r="D137" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E137" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F137" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G137" t="n">
         <v>0.3123613229756703</v>
@@ -33502,13 +33502,13 @@
         <v>69.01303793241189</v>
       </c>
       <c r="D138" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E138" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F138" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G138" t="n">
         <v>0.3190246685754902</v>
@@ -33741,13 +33741,13 @@
         <v>69.06655038337588</v>
       </c>
       <c r="D139" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E139" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F139" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G139" t="n">
         <v>0.3198405884648461</v>
@@ -33980,13 +33980,13 @@
         <v>68.23700481320384</v>
       </c>
       <c r="D140" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E140" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F140" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G140" t="n">
         <v>0.3131772428650262</v>
@@ -34219,13 +34219,13 @@
         <v>66.80173254525023</v>
       </c>
       <c r="D141" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E141" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F141" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G141" t="n">
         <v>0.3086896835715208</v>
@@ -34458,13 +34458,13 @@
         <v>66.90745454885177</v>
       </c>
       <c r="D142" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E142" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F142" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G142" t="n">
         <v>0.30936961678</v>
@@ -34697,13 +34697,13 @@
         <v>67.46750254826442</v>
       </c>
       <c r="D143" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E143" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F143" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G143" t="n">
         <v>0.3120893496792183</v>
@@ -34936,13 +34936,13 @@
         <v>68.75754126388699</v>
       </c>
       <c r="D144" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E144" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F144" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G144" t="n">
         <v>0.312497309656547</v>
@@ -35175,13 +35175,13 @@
         <v>70.00006715455093</v>
       </c>
       <c r="D145" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E145" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F145" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G145" t="n">
         <v>0.315217042490464</v>
@@ -35414,13 +35414,13 @@
         <v>68.28064338842415</v>
       </c>
       <c r="D146" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E146" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F146" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G146" t="n">
         <v>0.309097643483548</v>
@@ -35653,13 +35653,13 @@
         <v>68.3341726986561</v>
       </c>
       <c r="D147" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E147" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F147" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G147" t="n">
         <v>0.3104575099658079</v>
@@ -35892,13 +35892,13 @@
         <v>68.7279074384504</v>
       </c>
       <c r="D148" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E148" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F148" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G148" t="n">
         <v>0.3114094164707391</v>
@@ -36131,13 +36131,13 @@
         <v>69.25914299672753</v>
       </c>
       <c r="D149" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E149" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F149" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G149" t="n">
         <v>0.3179367753896823</v>
@@ -36370,13 +36370,13 @@
         <v>68.59568251931476</v>
       </c>
       <c r="D150" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E150" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F150" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G150" t="n">
         <v>0.3167128955882991</v>
@@ -36609,13 +36609,13 @@
         <v>68.85350808629704</v>
       </c>
       <c r="D151" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E151" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F151" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G151" t="n">
         <v>0.318344735367011</v>
@@ -36848,13 +36848,13 @@
         <v>67.88815079541747</v>
       </c>
       <c r="D152" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E152" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F152" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G152" t="n">
         <v>0.3303115600843908</v>
@@ -37087,13 +37087,13 @@
         <v>65.22486678973299</v>
       </c>
       <c r="D153" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E153" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F153" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G153" t="n">
         <v>0.318344735367011</v>
@@ -37326,13 +37326,13 @@
         <v>65.34839385658701</v>
       </c>
       <c r="D154" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E154" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F154" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G154" t="n">
         <v>0.3156250024677926</v>
@@ -37565,13 +37565,13 @@
         <v>66.38036232218052</v>
       </c>
       <c r="D155" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E155" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F155" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G155" t="n">
         <v>0.3184807219825862</v>
@@ -37804,13 +37804,13 @@
         <v>66.1669191814978</v>
       </c>
       <c r="D156" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E156" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F156" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G156" t="n">
         <v>0.322832294595215</v>
@@ -38043,13 +38043,13 @@
         <v>66.28949401866502</v>
       </c>
       <c r="D157" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E157" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F157" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G157" t="n">
         <v>0.3233762411881189</v>
@@ -38282,13 +38282,13 @@
         <v>67.39452454164105</v>
       </c>
       <c r="D158" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E158" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F158" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G158" t="n">
         <v>0.3303115600843908</v>
@@ -38521,13 +38521,13 @@
         <v>67.27156182607318</v>
       </c>
       <c r="D159" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E159" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F159" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G159" t="n">
         <v>0.3367029323877587</v>
@@ -38760,13 +38760,13 @@
         <v>66.75264308626704</v>
       </c>
       <c r="D160" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E160" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F160" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G160" t="n">
         <v>0.3387427320784978</v>
@@ -38999,13 +38999,13 @@
         <v>66.58390523868962</v>
       </c>
       <c r="D161" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E161" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F161" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G161" t="n">
         <v>0.3301755734688155</v>
@@ -39238,13 +39238,13 @@
         <v>65.86436722752346</v>
       </c>
       <c r="D162" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E162" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F162" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G162" t="n">
         <v>0.3263679473837893</v>
@@ -39477,13 +39477,13 @@
         <v>65.23231750813049</v>
       </c>
       <c r="D163" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E163" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F163" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G163" t="n">
         <v>0.3222883480676125</v>
@@ -39716,13 +39716,13 @@
         <v>60.88659052875183</v>
       </c>
       <c r="D164" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E164" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F164" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G164" t="n">
         <v>0.3167128955882991</v>
@@ -39955,13 +39955,13 @@
         <v>58.89772799670787</v>
       </c>
       <c r="D165" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E165" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F165" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G165" t="n">
         <v>0.2898079042056966</v>
@@ -40194,13 +40194,13 @@
         <v>59.2197819318243</v>
       </c>
       <c r="D166" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E166" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F166" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G166" t="n">
         <v>0.290304788783521</v>
@@ -40433,13 +40433,13 @@
         <v>49.95052076404762</v>
       </c>
       <c r="D167" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E167" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F167" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G167" t="n">
         <v>0.282478857384777</v>
@@ -40672,13 +40672,13 @@
         <v>50.7870297853468</v>
       </c>
       <c r="D168" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E168" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F168" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G168" t="n">
         <v>0.2847148377564318</v>
@@ -40911,13 +40911,13 @@
         <v>49.6823486791076</v>
       </c>
       <c r="D169" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E169" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F169" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G169" t="n">
         <v>0.2807397614603437</v>
@@ -41150,13 +41150,13 @@
         <v>48.96857223283272</v>
       </c>
       <c r="D170" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E170" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F170" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G170" t="n">
         <v>0.2766404641014262</v>
@@ -41389,13 +41389,13 @@
         <v>50.99170688434209</v>
       </c>
       <c r="D171" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E171" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F171" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G171" t="n">
         <v>0.2834726264098229</v>
@@ -41628,13 +41628,13 @@
         <v>50.64309498038539</v>
       </c>
       <c r="D172" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E172" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F172" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G172" t="n">
         <v>0.282478857384777</v>
@@ -41867,13 +41867,13 @@
         <v>49.98441219303712</v>
       </c>
       <c r="D173" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E173" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F173" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G173" t="n">
         <v>0.2823546362566462</v>
@@ -42106,13 +42106,13 @@
         <v>52.73780270774251</v>
       </c>
       <c r="D174" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E174" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F174" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G174" t="n">
         <v>0.2875719238340417</v>
@@ -42345,13 +42345,13 @@
         <v>52.9741425177188</v>
       </c>
       <c r="D175" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E175" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F175" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G175" t="n">
         <v>0.282478857384777</v>
@@ -42584,13 +42584,13 @@
         <v>54.47163286829904</v>
       </c>
       <c r="D176" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E176" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F176" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G176" t="n">
         <v>0.2854601645905177</v>
@@ -42823,13 +42823,13 @@
         <v>54.69282052288481</v>
       </c>
       <c r="D177" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E177" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F177" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G177" t="n">
         <v>0.2801186558196899</v>
@@ -43062,13 +43062,13 @@
         <v>54.57271479176869</v>
       </c>
       <c r="D178" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E178" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F178" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G178" t="n">
         <v>0.2807397614603437</v>
@@ -43301,13 +43301,13 @@
         <v>53.24018800842589</v>
       </c>
       <c r="D179" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E179" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F179" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G179" t="n">
         <v>0.2767646852295569</v>
@@ -43540,13 +43540,13 @@
         <v>53.94291013611742</v>
       </c>
       <c r="D180" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E180" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F180" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G180" t="n">
         <v>0.2766404641014262</v>
@@ -43779,13 +43779,13 @@
         <v>56.5743767608313</v>
       </c>
       <c r="D181" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E181" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F181" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G181" t="n">
         <v>0.2811124249100373</v>
@@ -44018,13 +44018,13 @@
         <v>56.9658021221565</v>
       </c>
       <c r="D182" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E182" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F182" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G182" t="n">
         <v>0.2807397614603437</v>
@@ -44257,13 +44257,13 @@
         <v>57.54442343031323</v>
       </c>
       <c r="D183" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E183" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F183" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G183" t="n">
         <v>0.2863297124874329</v>
@@ -44496,13 +44496,13 @@
         <v>58.07088753108805</v>
       </c>
       <c r="D184" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E184" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F184" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G184" t="n">
         <v>0.316763890185494</v>
@@ -44735,13 +44735,13 @@
         <v>60.75055565386603</v>
       </c>
       <c r="D185" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E185" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F185" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G185" t="n">
         <v>0.3380057040100714</v>
@@ -44974,13 +44974,13 @@
         <v>60.07135553778621</v>
       </c>
       <c r="D186" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E186" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F186" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G186" t="n">
         <v>0.3339064065858525</v>
@@ -45213,13 +45213,13 @@
         <v>58.4310759112449</v>
       </c>
       <c r="D187" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E187" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F187" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G187" t="n">
         <v>0.322974946853237</v>
@@ -45452,13 +45452,13 @@
         <v>57.27875303116526</v>
       </c>
       <c r="D188" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E188" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F188" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G188" t="n">
         <v>0.316763890185494</v>
@@ -45691,13 +45691,13 @@
         <v>58.11402874954334</v>
       </c>
       <c r="D189" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E189" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F189" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G189" t="n">
         <v>0.319620976263104</v>
@@ -45930,13 +45930,13 @@
         <v>59.30811151715166</v>
       </c>
       <c r="D190" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E190" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F190" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G190" t="n">
         <v>0.3223538412125832</v>
@@ -46169,13 +46169,13 @@
         <v>60.57861767993543</v>
       </c>
       <c r="D191" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E191" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F191" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G191" t="n">
         <v>0.3291860035209799</v>
@@ -46408,13 +46408,13 @@
         <v>61.82668491568225</v>
       </c>
       <c r="D192" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E192" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F192" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G192" t="n">
         <v>0.3276953499181095</v>
@@ -46647,13 +46647,13 @@
         <v>62.59051081286658</v>
       </c>
       <c r="D193" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E193" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F193" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G193" t="n">
         <v>0.3367634926634625</v>
@@ -46886,13 +46886,13 @@
         <v>60.27363381200335</v>
       </c>
       <c r="D194" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E194" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F194" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G194" t="n">
         <v>0.3192483128787117</v>
@@ -47125,13 +47125,13 @@
         <v>60.7173644698813</v>
       </c>
       <c r="D195" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E195" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F195" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G195" t="n">
         <v>0.3280680133025018</v>
@@ -47364,13 +47364,13 @@
         <v>59.80575703095048</v>
       </c>
       <c r="D196" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E196" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F196" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G196" t="n">
         <v>0.3187514283008874</v>
@@ -47603,13 +47603,13 @@
         <v>60.6113820483763</v>
       </c>
       <c r="D197" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E197" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F197" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G197" t="n">
         <v>0.3275711287899788</v>
@@ -47842,13 +47842,13 @@
         <v>62.35302403471999</v>
       </c>
       <c r="D198" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E198" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F198" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G198" t="n">
         <v>0.3542786724482133</v>
@@ -48081,13 +48081,13 @@
         <v>65.51250691271221</v>
       </c>
       <c r="D199" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E199" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F199" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G199" t="n">
         <v>0.3617319404625651</v>
@@ -48320,13 +48320,13 @@
         <v>64.53712603806186</v>
       </c>
       <c r="D200" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E200" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F200" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G200" t="n">
         <v>0.3550239992822992</v>
@@ -48559,13 +48559,13 @@
         <v>64.30497787302005</v>
       </c>
       <c r="D201" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E201" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F201" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G201" t="n">
         <v>0.354402893576344</v>
@@ -48798,13 +48798,13 @@
         <v>62.77908579758227</v>
       </c>
       <c r="D202" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E202" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F202" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G202" t="n">
         <v>0.350552038473688</v>
@@ -49037,13 +49037,13 @@
         <v>63.19468644952345</v>
       </c>
       <c r="D203" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E203" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F203" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G203" t="n">
         <v>0.3495582693833407</v>
@@ -49276,13 +49276,13 @@
         <v>63.79051829975418</v>
       </c>
       <c r="D204" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E204" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F204" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G204" t="n">
         <v>0.3560177683073451</v>
@@ -49515,13 +49515,13 @@
         <v>62.02388294738399</v>
       </c>
       <c r="D205" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E205" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F205" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G205" t="n">
         <v>0.340365905509857</v>
@@ -49754,13 +49754,13 @@
         <v>62.9687889016998</v>
       </c>
       <c r="D206" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E206" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F206" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G206" t="n">
         <v>0.3463285199213384</v>
@@ -49993,13 +49993,13 @@
         <v>59.1598302173461</v>
       </c>
       <c r="D207" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E207" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F207" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G207" t="n">
         <v>0.3214842932503665</v>
@@ -50232,13 +50232,13 @@
         <v>56.1644846201644</v>
       </c>
       <c r="D208" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E208" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F208" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G208" t="n">
         <v>0.3127888138894059</v>
@@ -50471,13 +50471,13 @@
         <v>56.35126001489091</v>
       </c>
       <c r="D209" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E209" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F209" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G209" t="n">
         <v>0.3152732365826236</v>
@@ -50710,13 +50710,13 @@
         <v>57.25695724455066</v>
       </c>
       <c r="D210" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E210" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F210" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G210" t="n">
         <v>0.3230991679813677</v>
@@ -50949,13 +50949,13 @@
         <v>59.53793812988885</v>
       </c>
       <c r="D211" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E211" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F211" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G211" t="n">
         <v>0.3315462050860669</v>
@@ -51188,13 +51188,13 @@
         <v>63.03559695076964</v>
       </c>
       <c r="D212" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E212" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F212" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G212" t="n">
         <v>0.3474465101398165</v>
@@ -51427,13 +51427,13 @@
         <v>62.50292571580091</v>
       </c>
       <c r="D213" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E213" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F213" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G213" t="n">
         <v>0.3454589720244232</v>
@@ -51666,13 +51666,13 @@
         <v>63.53275285870284</v>
       </c>
       <c r="D214" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E214" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F214" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G214" t="n">
         <v>0.3514215863706032</v>
@@ -51905,13 +51905,13 @@
         <v>63.38360051797098</v>
       </c>
       <c r="D215" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E215" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F215" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G215" t="n">
         <v>0.3473222890116858</v>
@@ -52144,13 +52144,13 @@
         <v>61.45283249032307</v>
       </c>
       <c r="D216" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E216" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F216" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G216" t="n">
         <v>0.3306766571238502</v>
@@ -52383,13 +52383,13 @@
         <v>61.64290617630771</v>
       </c>
       <c r="D217" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E217" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F217" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G217" t="n">
         <v>0.3232233891094984</v>
@@ -52622,13 +52622,13 @@
         <v>65.42934136331547</v>
       </c>
       <c r="D218" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E218" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F218" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G218" t="n">
         <v>0.3366392715353317</v>
@@ -52861,13 +52861,13 @@
         <v>64.84016194561849</v>
       </c>
       <c r="D219" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E219" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F219" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G219" t="n">
         <v>0.3321673107267207</v>
@@ -53100,13 +53100,13 @@
         <v>66.07550332318245</v>
       </c>
       <c r="D220" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E220" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F220" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G220" t="n">
         <v>0.3319188684704591</v>
@@ -53339,13 +53339,13 @@
         <v>67.48640160661843</v>
       </c>
       <c r="D221" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E221" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F221" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G221" t="n">
         <v>0.3432229915874669</v>
@@ -53578,13 +53578,13 @@
         <v>67.10263320961344</v>
       </c>
       <c r="D222" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E222" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F222" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G222" t="n">
         <v>0.333657964329591</v>
@@ -53817,13 +53817,13 @@
         <v>68.89430457026495</v>
       </c>
       <c r="D223" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E223" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F223" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G223" t="n">
         <v>0.3337821854577218</v>
@@ -54056,13 +54056,13 @@
         <v>69.50424175977356</v>
       </c>
       <c r="D224" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E224" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F224" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G224" t="n">
         <v>0.3406143477661185</v>
@@ -54295,13 +54295,13 @@
         <v>67.93982932321281</v>
       </c>
       <c r="D225" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E225" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F225" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G225" t="n">
         <v>0.3385025885225943</v>
@@ -54534,13 +54534,13 @@
         <v>63.40287505184215</v>
       </c>
       <c r="D226" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E226" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F226" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G226" t="n">
         <v>0.2978822779260036</v>
@@ -54773,13 +54773,13 @@
         <v>66.6617614696755</v>
       </c>
       <c r="D227" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E227" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F227" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G227" t="n">
         <v>0.3131614773390995</v>
@@ -55012,13 +55012,13 @@
         <v>66.44969889525457</v>
       </c>
       <c r="D228" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E228" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F228" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G228" t="n">
         <v>0.3439683184215528</v>
@@ -55251,13 +55251,13 @@
         <v>70.46422202997239</v>
       </c>
       <c r="D229" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E229" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F229" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G229" t="n">
         <v>0.3618561615906958</v>
@@ -55490,13 +55490,13 @@
         <v>69.27700877773091</v>
       </c>
       <c r="D230" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E230" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F230" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G230" t="n">
         <v>0.3777564667097469</v>
@@ -55729,13 +55729,13 @@
         <v>72.01061714223223</v>
       </c>
       <c r="D231" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E231" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F231" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G231" t="n">
         <v>0.379371341440748</v>
@@ -55968,13 +55968,13 @@
         <v>74.26724430330948</v>
       </c>
       <c r="D232" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E232" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F232" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G232" t="n">
         <v>0.3854581769803602</v>
@@ -56207,13 +56207,13 @@
         <v>74.58021054091161</v>
       </c>
       <c r="D233" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E233" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F233" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G233" t="n">
         <v>0.4014827031622407</v>
@@ -56446,13 +56446,13 @@
         <v>74.16539419717492</v>
       </c>
       <c r="D234" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E234" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F234" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G234" t="n">
         <v>0.4079422020862451</v>
@@ -56685,13 +56685,13 @@
         <v>77.60878180358051</v>
       </c>
       <c r="D235" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E235" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F235" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G235" t="n">
         <v>0.4253331607428651</v>
@@ -56924,13 +56924,13 @@
         <v>77.61820094254909</v>
       </c>
       <c r="D236" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E236" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F236" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G236" t="n">
         <v>0.4306746695136928</v>
@@ -57163,13 +57163,13 @@
         <v>74.80005517089151</v>
       </c>
       <c r="D237" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E237" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F237" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G237" t="n">
         <v>0.4312957751543466</v>
@@ -57402,13 +57402,13 @@
         <v>73.86413869554119</v>
       </c>
       <c r="D238" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E238" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F238" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G238" t="n">
         <v>0.4229729592430795</v>
@@ -57641,13 +57641,13 @@
         <v>72.29443974082366</v>
       </c>
       <c r="D239" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E239" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F239" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G239" t="n">
         <v>0.4347739669379117</v>
@@ -57880,13 +57880,13 @@
         <v>70.8044255044336</v>
       </c>
       <c r="D240" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E240" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F240" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G240" t="n">
         <v>0.4084390866640695</v>
@@ -58119,13 +58119,13 @@
         <v>72.85245210319249</v>
       </c>
       <c r="D241" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E241" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F241" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G241" t="n">
         <v>0.4378794952717832</v>
@@ -58358,13 +58358,13 @@
         <v>74.76557280126086</v>
       </c>
       <c r="D242" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E242" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F242" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G242" t="n">
         <v>0.4411092447337854</v>
@@ -58597,13 +58597,13 @@
         <v>73.70263709788046</v>
       </c>
       <c r="D243" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E243" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F243" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G243" t="n">
         <v>0.4341528612319566</v>
@@ -58836,13 +58836,13 @@
         <v>76.33893429995274</v>
       </c>
       <c r="D244" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E244" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F244" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G244" t="n">
         <v>0.4571337709156659</v>
@@ -59075,13 +59075,13 @@
         <v>76.04314988157785</v>
       </c>
       <c r="D245" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E245" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F245" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G245" t="n">
         <v>0.4341528612319566</v>
@@ -59314,13 +59314,13 @@
         <v>74.15263720094129</v>
       </c>
       <c r="D246" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E246" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F246" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G246" t="n">
         <v>0.4181283350500761</v>
@@ -59553,13 +59553,13 @@
         <v>73.23245716743742</v>
       </c>
       <c r="D247" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E247" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F247" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G247" t="n">
         <v>0.4197432097810773</v>
@@ -59792,13 +59792,13 @@
         <v>71.87424589682178</v>
       </c>
       <c r="D248" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E248" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F248" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G248" t="n">
         <v>0.4064515484833747</v>
@@ -60025,238 +60025,238 @@
         <v>247</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="C249" t="n">
-        <v>73.23245716743742</v>
+        <v>73.875943646433</v>
       </c>
       <c r="D249" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E249" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F249" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G249" t="n">
-        <v>0.4197432097810773</v>
+        <v>0.414898585588074</v>
       </c>
       <c r="H249" t="n">
-        <v>1.112537702593458</v>
+        <v>1.143073714287487</v>
       </c>
       <c r="I249" t="n">
-        <v>0.190170927527534</v>
+        <v>0.1843338305348915</v>
       </c>
       <c r="J249" t="n">
-        <v>0.06518944828491437</v>
+        <v>0.06259314114835723</v>
       </c>
       <c r="K249" t="n">
-        <v>0.09853785171648367</v>
+        <v>0.0972601506876168</v>
       </c>
       <c r="L249" t="n">
-        <v>0.2283467712623231</v>
+        <v>0.2278806517479913</v>
       </c>
       <c r="M249" t="n">
-        <v>1.393522938594957</v>
+        <v>1.432565607013954</v>
       </c>
       <c r="N249" t="n">
-        <v>3.412650973099516</v>
+        <v>3.338065539440373</v>
       </c>
       <c r="O249" t="n">
-        <v>1.18159816229717</v>
+        <v>1.260059090833572</v>
       </c>
       <c r="P249" t="n">
-        <v>0.7790363736217415</v>
+        <v>0.7633766172068638</v>
       </c>
       <c r="Q249" t="n">
-        <v>0.8395587576504082</v>
+        <v>0.8281787861725441</v>
       </c>
       <c r="R249" t="n">
-        <v>0.3960982471638554</v>
+        <v>0.4084457542596633</v>
       </c>
       <c r="S249" t="n">
-        <v>0.08909751667560992</v>
+        <v>0.08707257311822542</v>
       </c>
       <c r="T249" t="n">
-        <v>0.1784701989404519</v>
+        <v>0.1726524946694332</v>
       </c>
       <c r="U249" t="n">
-        <v>0.4529575036539042</v>
+        <v>0.4186177651233256</v>
       </c>
       <c r="V249" t="n">
-        <v>0.8978761250554173</v>
+        <v>0.9079912205076323</v>
       </c>
       <c r="W249" t="n">
-        <v>1.031260459529162</v>
+        <v>0.9131308099567517</v>
       </c>
       <c r="X249" t="n">
-        <v>0.5569281071573861</v>
+        <v>0.5100282818613954</v>
       </c>
       <c r="Y249" t="n">
-        <v>0.1723634148708919</v>
+        <v>0.162771016144381</v>
       </c>
       <c r="Z249" t="n">
-        <v>1.044143123934054</v>
+        <v>0.9807820529238803</v>
       </c>
       <c r="AA249" t="n">
-        <v>0.4355666975245134</v>
+        <v>0.4672967218207355</v>
       </c>
       <c r="AB249" t="n">
-        <v>0.6681071518655386</v>
+        <v>0.6482873332430446</v>
       </c>
       <c r="AC249" t="n">
-        <v>0.1345837191744683</v>
+        <v>0.1390847225025745</v>
       </c>
       <c r="AD249" t="n">
-        <v>2.599612258434548</v>
+        <v>2.535387299372488</v>
       </c>
       <c r="AE249" t="n">
-        <v>-0.03161520701767902</v>
+        <v>-0.03027202245153993</v>
       </c>
       <c r="AF249" t="n">
-        <v>0.1501835809841882</v>
+        <v>0.1462524224826671</v>
       </c>
       <c r="AG249" t="n">
-        <v>0.7293458851928774</v>
+        <v>0.7514925827394839</v>
       </c>
       <c r="AH249" t="n">
-        <v>0.7205093620850999</v>
+        <v>0.6437730052841714</v>
       </c>
       <c r="AI249" t="n">
-        <v>0.3125227680211702</v>
+        <v>0.8309450522758471</v>
       </c>
       <c r="AJ249" t="n">
-        <v>6.358600250516577</v>
+        <v>6.500645196820455</v>
       </c>
       <c r="AK249" t="n">
-        <v>-0.3519255998597254</v>
+        <v>-0.2444967356387809</v>
       </c>
       <c r="AL249" t="n">
-        <v>0.4955281062775019</v>
+        <v>0.4995386754414862</v>
       </c>
       <c r="AM249" t="n">
-        <v>0.2468437607658163</v>
+        <v>0.220599653526883</v>
       </c>
       <c r="AN249" t="n">
-        <v>1.726255798122293</v>
+        <v>1.703255630802023</v>
       </c>
       <c r="AO249" t="n">
-        <v>0.236869675604458</v>
+        <v>0.2325080526864387</v>
       </c>
       <c r="AP249" t="n">
-        <v>0.952090802793275</v>
+        <v>0.8660747888972462</v>
       </c>
       <c r="AQ249" t="n">
-        <v>0.3350516654697888</v>
+        <v>0.3296781953487565</v>
       </c>
       <c r="AR249" t="n">
-        <v>1.005186962149146</v>
+        <v>1.35557565731809</v>
       </c>
       <c r="AS249" t="n">
-        <v>0.212633177662409</v>
+        <v>0.2089537328645305</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.8774674213892848</v>
+        <v>0.8836812464877435</v>
       </c>
       <c r="AU249" t="n">
-        <v>-12.47775131567003</v>
+        <v>-12.34423367072106</v>
       </c>
       <c r="AV249" t="n">
-        <v>0.245655975670053</v>
+        <v>0.2575040246549273</v>
       </c>
       <c r="AW249" t="n">
-        <v>0.3855269901601806</v>
+        <v>0.3920658695025171</v>
       </c>
       <c r="AX249" t="n">
-        <v>3.044589012332677</v>
+        <v>3.148717957024914</v>
       </c>
       <c r="AY249" t="n">
-        <v>1.216690811996147</v>
+        <v>1.186218636922694</v>
       </c>
       <c r="AZ249" t="n">
-        <v>0.06858754150380883</v>
+        <v>0.06863266489079513</v>
       </c>
       <c r="BA249" t="n">
-        <v>0.8108763314802431</v>
+        <v>0.8185475932010872</v>
       </c>
       <c r="BB249" t="n">
-        <v>1.069207475571859</v>
+        <v>1.092008549020755</v>
       </c>
       <c r="BC249" t="n">
-        <v>0.2253866442483953</v>
+        <v>0.2216953407631566</v>
       </c>
       <c r="BD249" t="n">
-        <v>0.1514892281287961</v>
+        <v>0.1534489374338729</v>
       </c>
       <c r="BE249" t="n">
-        <v>0.2181609397461217</v>
+        <v>0.256528977637373</v>
       </c>
       <c r="BF249" t="n">
-        <v>0.5909891487226987</v>
+        <v>0.5949403655855</v>
       </c>
       <c r="BG249" t="n">
-        <v>0.3652274480517137</v>
+        <v>0.3520291190484699</v>
       </c>
       <c r="BH249" t="n">
-        <v>1.001247592543079</v>
+        <v>0.9089956874860022</v>
       </c>
       <c r="BI249" t="n">
-        <v>0.114523134969151</v>
+        <v>0.139438875696695</v>
       </c>
       <c r="BJ249" t="n">
-        <v>0.8265586148568533</v>
+        <v>0.7921157532410871</v>
       </c>
       <c r="BK249" t="n">
-        <v>2.955476141651164</v>
+        <v>3.104117236916785</v>
       </c>
       <c r="BL249" t="n">
-        <v>1.446573934435033</v>
+        <v>1.476743972448429</v>
       </c>
       <c r="BM249" t="n">
-        <v>1.93432652050433</v>
+        <v>1.798811981344264</v>
       </c>
       <c r="BN249" t="n">
-        <v>0.9782247796181865</v>
+        <v>0.9894520686651979</v>
       </c>
       <c r="BO249" t="n">
-        <v>4.585380538839746</v>
+        <v>4.561721690648091</v>
       </c>
       <c r="BP249" t="n">
-        <v>-0.03957531394350838</v>
+        <v>-0.03889445870949414</v>
       </c>
       <c r="BQ249" t="n">
-        <v>-0.002570497799997234</v>
+        <v>-0.002552373801944852</v>
       </c>
       <c r="BR249" t="n">
-        <v>1.570529409956909</v>
+        <v>1.654737382112033</v>
       </c>
       <c r="BS249" t="n">
-        <v>0.2901927195101585</v>
+        <v>0.2979618640726581</v>
       </c>
       <c r="BT249" t="n">
-        <v>9.66185164857068</v>
+        <v>10.05191479425953</v>
       </c>
       <c r="BU249" t="n">
-        <v>14.0437811224205</v>
+        <v>13.39502889601698</v>
       </c>
       <c r="BV249" t="n">
-        <v>0.3943169454092006</v>
+        <v>0.3750866529981813</v>
       </c>
       <c r="BW249" t="n">
-        <v>2.665321074340402</v>
+        <v>2.613711408923936</v>
       </c>
       <c r="BX249" t="n">
-        <v>0.08132524287857401</v>
+        <v>0.1155184185206094</v>
       </c>
       <c r="BY249" t="n">
-        <v>0.6203107989530462</v>
+        <v>0.5950227645388702</v>
       </c>
       <c r="BZ249" t="n">
-        <v>1.049303624886555</v>
+        <v>1.022630450557278</v>
       </c>
       <c r="CA249" t="n">
-        <v>0.7872168523288251</v>
+        <v>0.8242373204820674</v>
       </c>
     </row>
     <row r="250">
@@ -60264,238 +60264,238 @@
         <v>248</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="C250" t="n">
-        <v>71.87424589682178</v>
+        <v>70.6616020481805</v>
       </c>
       <c r="D250" t="n">
-        <v>70.18731897878814</v>
+        <v>70.18499588748347</v>
       </c>
       <c r="E250" t="n">
-        <v>79.29745720321195</v>
+        <v>79.29551896260523</v>
       </c>
       <c r="F250" t="n">
-        <v>61.07718075436433</v>
+        <v>61.07447281236171</v>
       </c>
       <c r="G250" t="n">
-        <v>0.4064515484833747</v>
+        <v>0.4051724541764333</v>
       </c>
       <c r="H250" t="n">
-        <v>1.088126908485687</v>
+        <v>1.116501078669658</v>
       </c>
       <c r="I250" t="n">
-        <v>0.1833821299553282</v>
+        <v>0.1841223415138565</v>
       </c>
       <c r="J250" t="n">
-        <v>0.06351895609133354</v>
+        <v>0.0609427753602363</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1007447898396349</v>
+        <v>0.1008222262728551</v>
       </c>
       <c r="L250" t="n">
-        <v>0.2268448306002812</v>
+        <v>0.2282949802027998</v>
       </c>
       <c r="M250" t="n">
-        <v>1.397000423195473</v>
+        <v>1.459279011867268</v>
       </c>
       <c r="N250" t="n">
-        <v>3.034605035660082</v>
+        <v>3.495333391650508</v>
       </c>
       <c r="O250" t="n">
-        <v>1.176679716104691</v>
+        <v>1.238745823745302</v>
       </c>
       <c r="P250" t="n">
-        <v>0.7526785864575043</v>
+        <v>0.7554413093533526</v>
       </c>
       <c r="Q250" t="n">
-        <v>0.7890839560236029</v>
+        <v>0.8319902600117006</v>
       </c>
       <c r="R250" t="n">
-        <v>0.3956092369887123</v>
+        <v>0.405633945673752</v>
       </c>
       <c r="S250" t="n">
-        <v>0.08687007875602874</v>
+        <v>0.08642459116350155</v>
       </c>
       <c r="T250" t="n">
-        <v>0.1767733685380346</v>
+        <v>0.1697436425259534</v>
       </c>
       <c r="U250" t="n">
-        <v>0.4385675179881623</v>
+        <v>0.4120768625439651</v>
       </c>
       <c r="V250" t="n">
-        <v>0.8864697408769765</v>
+        <v>0.9271453372047204</v>
       </c>
       <c r="W250" t="n">
-        <v>0.9821257381485733</v>
+        <v>0.9068751070937248</v>
       </c>
       <c r="X250" t="n">
-        <v>0.5054515342867507</v>
+        <v>0.4935073394817977</v>
       </c>
       <c r="Y250" t="n">
-        <v>0.1603729164525463</v>
+        <v>0.1655687991045788</v>
       </c>
       <c r="Z250" t="n">
-        <v>0.9830167795820139</v>
+        <v>0.9601436960003451</v>
       </c>
       <c r="AA250" t="n">
-        <v>0.416477779098801</v>
+        <v>0.4666180047165208</v>
       </c>
       <c r="AB250" t="n">
-        <v>0.619448225780442</v>
+        <v>0.6291271043127384</v>
       </c>
       <c r="AC250" t="n">
-        <v>0.1391219208647401</v>
+        <v>0.1333561728195923</v>
       </c>
       <c r="AD250" t="n">
-        <v>2.682890621946017</v>
+        <v>2.543950627189562</v>
       </c>
       <c r="AE250" t="n">
-        <v>-0.02934858305255206</v>
+        <v>-0.032219640095883</v>
       </c>
       <c r="AF250" t="n">
-        <v>0.1434539706633023</v>
+        <v>0.1531819222241976</v>
       </c>
       <c r="AG250" t="n">
-        <v>0.7122452706270177</v>
+        <v>0.7540156242298575</v>
       </c>
       <c r="AH250" t="n">
-        <v>0.6350155743397127</v>
+        <v>0.6258508210374573</v>
       </c>
       <c r="AI250" t="n">
-        <v>0.8320029071959155</v>
+        <v>0.8230111402488092</v>
       </c>
       <c r="AJ250" t="n">
-        <v>6.431015321092348</v>
+        <v>6.364170640450669</v>
       </c>
       <c r="AK250" t="n">
-        <v>-0.3606872330623444</v>
+        <v>-0.2333612407523648</v>
       </c>
       <c r="AL250" t="n">
-        <v>0.4919631557844562</v>
+        <v>0.4986474378494897</v>
       </c>
       <c r="AM250" t="n">
-        <v>0.2152191741600346</v>
+        <v>0.2188427623341878</v>
       </c>
       <c r="AN250" t="n">
-        <v>1.691444734086847</v>
+        <v>1.703255630802023</v>
       </c>
       <c r="AO250" t="n">
-        <v>0.2335145810417836</v>
+        <v>0.2315015242862359</v>
       </c>
       <c r="AP250" t="n">
-        <v>0.8506275571759536</v>
+        <v>0.8362101409772592</v>
       </c>
       <c r="AQ250" t="n">
-        <v>0.3435860003450542</v>
+        <v>0.3540168540922775</v>
       </c>
       <c r="AR250" t="n">
-        <v>1.289578789863913</v>
+        <v>1.337096534407987</v>
       </c>
       <c r="AS250" t="n">
-        <v>0.2061457355264814</v>
+        <v>0.2028536007188775</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.8674876416993609</v>
+        <v>0.9002514467127319</v>
       </c>
       <c r="AU250" t="n">
-        <v>-12.46292822523328</v>
+        <v>-12.96738008215186</v>
       </c>
       <c r="AV250" t="n">
-        <v>0.2476455168483884</v>
+        <v>0.2495740461310947</v>
       </c>
       <c r="AW250" t="n">
-        <v>0.3896638322196829</v>
+        <v>0.3844594179899234</v>
       </c>
       <c r="AX250" t="n">
-        <v>2.997525295313515</v>
+        <v>3.120084760064713</v>
       </c>
       <c r="AY250" t="n">
-        <v>1.171668859594607</v>
+        <v>1.173121994114706</v>
       </c>
       <c r="AZ250" t="n">
-        <v>0.06786556739011368</v>
+        <v>0.06795581416408626</v>
       </c>
       <c r="BA250" t="n">
-        <v>0.7920577677142877</v>
+        <v>0.8111160584574161</v>
       </c>
       <c r="BB250" t="n">
-        <v>1.063507207209635</v>
+        <v>1.140053667960742</v>
       </c>
       <c r="BC250" t="n">
-        <v>0.2221296117712799</v>
+        <v>0.2201753923185344</v>
       </c>
       <c r="BD250" t="n">
-        <v>0.1506387882290515</v>
+        <v>0.1527464001406401</v>
       </c>
       <c r="BE250" t="n">
-        <v>0.2516728735584056</v>
+        <v>0.25631784270086</v>
       </c>
       <c r="BF250" t="n">
-        <v>0.592118067835854</v>
+        <v>0.6062295565840842</v>
       </c>
       <c r="BG250" t="n">
-        <v>0.329035600153111</v>
+        <v>0.3459435092905877</v>
       </c>
       <c r="BH250" t="n">
-        <v>0.9956907188918112</v>
+        <v>0.9103977374047522</v>
       </c>
       <c r="BI250" t="n">
-        <v>0.1348000090064535</v>
+        <v>0.1378016286283371</v>
       </c>
       <c r="BJ250" t="n">
-        <v>0.8026127255181705</v>
+        <v>0.7879705233374256</v>
       </c>
       <c r="BK250" t="n">
-        <v>2.858519709248116</v>
+        <v>3.244665882834134</v>
       </c>
       <c r="BL250" t="n">
-        <v>1.404759320090395</v>
+        <v>1.479390467134738</v>
       </c>
       <c r="BM250" t="n">
-        <v>1.952437819111367</v>
+        <v>1.914165321386028</v>
       </c>
       <c r="BN250" t="n">
-        <v>0.9447919752431561</v>
+        <v>1.001387093571634</v>
       </c>
       <c r="BO250" t="n">
-        <v>4.433076702743421</v>
+        <v>4.470043653398048</v>
       </c>
       <c r="BP250" t="n">
-        <v>-0.03734743034264795</v>
+        <v>-0.03876872230062903</v>
       </c>
       <c r="BQ250" t="n">
-        <v>-0.00245250774001876</v>
+        <v>-0.002677490163966699</v>
       </c>
       <c r="BR250" t="n">
-        <v>1.545165562893572</v>
+        <v>1.39754234552705</v>
       </c>
       <c r="BS250" t="n">
-        <v>0.2978666381821422</v>
+        <v>0.2974857346200783</v>
       </c>
       <c r="BT250" t="n">
-        <v>9.521030129806711</v>
+        <v>7.938047615719447</v>
       </c>
       <c r="BU250" t="n">
-        <v>13.46487716782974</v>
+        <v>13.322623334493</v>
       </c>
       <c r="BV250" t="n">
-        <v>0.3698836855242748</v>
+        <v>0.3731946647501777</v>
       </c>
       <c r="BW250" t="n">
-        <v>2.578362323104429</v>
+        <v>2.615832354143098</v>
       </c>
       <c r="BX250" t="n">
-        <v>0.07812589957966766</v>
+        <v>0.1124001299264448</v>
       </c>
       <c r="BY250" t="n">
-        <v>0.6139103435378077</v>
+        <v>0.5355779227310761</v>
       </c>
       <c r="BZ250" t="n">
-        <v>1.021677837163182</v>
+        <v>0.8836160206990852</v>
       </c>
       <c r="CA250" t="n">
-        <v>0.8382795671332804</v>
+        <v>0.8063653703964934</v>
       </c>
     </row>
   </sheetData>
